--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.2_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2554631273729394</v>
+        <v>0.2466395979611747</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2554631273729394, 'ngram_match_score': 0.09528338574839093, 'weighted_ngram_match_score': 0.10877123535724292, 'syntax_match_score': 0.558974358974359, 'dataflow_match_score': 0.25882352941176473}</t>
+          <t>{'codebleu': 0.24663959796117468, 'ngram_match_score': 0.09528338574839093, 'weighted_ngram_match_score': 0.10877123535724292, 'syntax_match_score': 0.558974358974359, 'dataflow_match_score': 0.2235294117647059}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.2_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2466395979611747</v>
+        <v>0.28781606854941</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.24663959796117468, 'ngram_match_score': 0.09528338574839093, 'weighted_ngram_match_score': 0.10877123535724292, 'syntax_match_score': 0.558974358974359, 'dataflow_match_score': 0.2235294117647059}</t>
+          <t>{'codebleu': 0.28781606854941, 'ngram_match_score': 0.09528338574839093, 'weighted_ngram_match_score': 0.10877123535724292, 'syntax_match_score': 0.558974358974359, 'dataflow_match_score': 0.38823529411764707}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
